--- a/src/main/java/com/epay/testdata/Automation_sheet.xlsx
+++ b/src/main/java/com/epay/testdata/Automation_sheet.xlsx
@@ -120,10 +120,10 @@
     <t>60605</t>
   </si>
   <si>
-    <t>4539839871221654</t>
-  </si>
-  <si>
     <t>4532330560879512</t>
+  </si>
+  <si>
+    <t>4711100000000000</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>17</v>
@@ -712,7 +712,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>16</v>
